--- a/documents/スピード残作業リスト.xlsx
+++ b/documents/スピード残作業リスト.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -153,11 +153,35 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>putMainがエラー返却の場合の処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>置けるカードが無くなった場合の処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>札が台札の下に潜ってしまう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台札に置いた札は動かせないようにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始時OKボタン以外を押すと処理続行不可になる</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,12 +267,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -290,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,9 +350,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -649,60 +710,96 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
@@ -921,6 +1018,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -934,6 +1034,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/スピード残作業リスト.xlsx
+++ b/documents/スピード残作業リスト.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>置けるカードが無くなった場合の処理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム終了処理</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -175,6 +171,107 @@
   </si>
   <si>
     <t>ゲーム開始時OKボタン以外を押すと処理続行不可になる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不要</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>置けるカードが無くなった場合の処理(ログイン時）</t>
+    <rPh sb="22" eb="23">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台札補充処理を行った旨のメッセージ</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ムネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札が無くなった時の表示処理（サーバ・クライアント）</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五島</t>
+    <rPh sb="0" eb="2">
+      <t>ゴトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+    <rPh sb="0" eb="3">
+      <t>タイオウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【追加】台札の返却情報にプレイヤー1or2の情報を付加</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -595,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +740,7 @@
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A32" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A31" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -684,9 +781,11 @@
       <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -707,7 +806,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -727,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
@@ -743,14 +842,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -759,14 +860,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -775,14 +876,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -791,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -806,30 +907,48 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
@@ -992,17 +1111,7 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
+      <c r="A32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1015,11 +1124,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
